--- a/biology/Zoologie/Achramorpha/Achramorpha.xlsx
+++ b/biology/Zoologie/Achramorpha/Achramorpha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Achramorpha est un genre d'éponges de la famille Achramorphidae. Les espèces de ce genre sont marines. L'espèce type est Achramorpha nivalis[1]. À l'origine, ce genre avait été placé dans la famille Staurorraphidae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Achramorpha est un genre d'éponges de la famille Achramorphidae. Les espèces de ce genre sont marines. L'espèce type est Achramorpha nivalis. À l'origine, ce genre avait été placé dans la famille Staurorraphidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (14 février 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (14 février 2017) :
 Achramorpha diomediae Hozawa, 1918
 Achramorpha glacialis Jenkin, 1908
 Achramorpha grandinis Jenkin, 1908
@@ -546,7 +560,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) C. F. Jenkin, « Porifera. III. Calcarea. National Antarctic Expedition, 1901-1904 », Natural History, Musée américain d'histoire naturelle, vol. 4,‎ 1908, p. 1-49 (ISSN 0028-0712, OCLC 1759475, lire en ligne)</t>
         </is>
